--- a/InputFiles/InputFormat.xlsx
+++ b/InputFiles/InputFormat.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
